--- a/plot_soln.xlsx
+++ b/plot_soln.xlsx
@@ -1436,16 +1436,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1755,7 +1755,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
